--- a/Data/Processed/Angiosperms/missing_powo_ipni/Pentaphylacaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Pentaphylacaceae.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
